--- a/03Casos_DC3Bus_TS.xlsx
+++ b/03Casos_DC3Bus_TS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,21 @@
           <t>Costo</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Line 1-2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Line 1-3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Line 2-3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,12 +503,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>89.99999999823304</t>
+          <t>89.99999999827605</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.599086419996167</t>
+          <t>4.616916677889854</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +518,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>110.59908641766663</t>
+          <t>110.61691667560332</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,8 +528,221 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6949.90864186226</t>
-        </is>
+          <t>6951.691667654426</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7870759449420229</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.6690758539059776</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>63.697458436959906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>63.697458436959906</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>64.0000000005626</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.09897859168438586</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.09828034206521982</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.9104880898372293</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>93.89220107334809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.1637977962521902</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>95.05599886960029</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>46.551911850087606</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1910014090145347</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4545455730889739</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.5532417447340982</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>41.68935740393821</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>41.68935740393821</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>41.90392546482079</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1858452736974356</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4482671430068484</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.5597959295211161</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2.978443120350669</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.978443120350669</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.000000001723992</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1823871808302872</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4517310502637992</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.5917147058555737</v>
       </c>
     </row>
     <row r="37">
@@ -557,17 +785,125 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>90.06832112078378</t>
+          <t>90.19461368214436</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.602577693485131</t>
+          <t>4.626900178319644</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>16.012145990907555</t>
+          <t>16.034598002128334</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>50.00000238427002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4.365704977413227</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.365704977508983</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-63.999999989526</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>50.00000390731033</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>8.637183492433719</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-95.99999998888885</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.226441438133676</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>41.244686442019244</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1.1191048088221578e-12</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>-4.106937012693379e-12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>-3.879563337250147e-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3.118964612163751</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>-9.99999999056634</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>-9.663381206337363e-12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4.149569576838985e-12</t>
         </is>
       </c>
     </row>
